--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -88,7 +88,7 @@
     <t>教师有权在已开设的课程列表中关闭课程</t>
   </si>
   <si>
-    <t>删除回复</t>
+    <t>*删除回复</t>
   </si>
   <si>
     <t>可以删除自己发表的回复</t>
@@ -106,13 +106,13 @@
     <t>教师在忘记密码的情况下可以通过管理员重置方式或者发送邮箱验证码的方式进行面找回</t>
   </si>
   <si>
-    <t>在线预览、下载答疑记录</t>
+    <t>*在线预览、下载答疑记录</t>
   </si>
   <si>
     <t>教师可以在线预览往期的答疑记录并且能够下载</t>
   </si>
   <si>
-    <t>搜索消息</t>
+    <t>*搜索消息</t>
   </si>
   <si>
     <t>教师有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，教师可以根据消息分类筛选和关键字搜索相关信息</t>
@@ -148,7 +148,7 @@
     <t>教师发现课程公告内容出错了可以修改课程公告并重新发送</t>
   </si>
   <si>
-    <t>教开设课程</t>
+    <t>教师开设课程</t>
   </si>
   <si>
     <t>教师有权开设课程，填写内容并且由管理员审核</t>
@@ -184,7 +184,7 @@
     <t>教师可以在自己开设的课程资料中上传课程资料</t>
   </si>
   <si>
-    <t>课程论坛删除别人的帖子</t>
+    <t>*课程论坛删除别人的帖子</t>
   </si>
   <si>
     <t>教师有权可以在课程论坛中管理删除帖子，相当于一个小吧主</t>
@@ -214,13 +214,13 @@
     <t>教师可以删除往期的答疑记录</t>
   </si>
   <si>
-    <t>置顶、加精帖子</t>
+    <t>*置顶、加精帖子</t>
   </si>
   <si>
     <t>教师有权在自己的课程论坛下置顶加精帖子</t>
   </si>
   <si>
-    <t>举报帖子、用户</t>
+    <t>*举报帖子、用户</t>
   </si>
   <si>
     <t>教师可以在帖子对不良帖子和用户进行举报</t>
@@ -244,7 +244,7 @@
     <t>教师可以下载、在线预览课程资料</t>
   </si>
   <si>
-    <t>关注、取关课程和教师</t>
+    <t>*关注、取关课程和教师</t>
   </si>
   <si>
     <t>教师可以关注全网自己感兴趣的课程、教师，可以在“我的关注”中取关</t>
@@ -297,8 +297,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,9 +337,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,93 +458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,28 +474,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -489,6 +489,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,91 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,67 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +680,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,54 +772,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -765,21 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,133 +800,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,14 +337,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,15 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,17 +412,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,51 +436,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,7 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,181 +489,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +680,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,41 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,15 +772,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -788,145 +788,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,13 +1283,14 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+      <selection activeCell="B4" sqref="B4:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="91.125" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="117.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:15">
@@ -1344,8 +1345,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
@@ -1383,8 +1383,7 @@
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7"/>
@@ -1395,8 +1394,7 @@
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="7"/>
@@ -1407,8 +1405,7 @@
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7"/>
@@ -1419,8 +1416,7 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="7"/>
@@ -1431,8 +1427,7 @@
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7"/>
@@ -1443,8 +1438,7 @@
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="7"/>
@@ -1455,8 +1449,7 @@
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="7"/>
@@ -1467,8 +1460,7 @@
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="7"/>
@@ -1479,8 +1471,7 @@
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="7"/>
@@ -1491,8 +1482,7 @@
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="7"/>
@@ -1503,8 +1493,7 @@
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="7"/>
@@ -1515,8 +1504,7 @@
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7"/>
@@ -1527,8 +1515,7 @@
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="7"/>
@@ -1539,8 +1526,7 @@
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="7"/>
@@ -1551,8 +1537,7 @@
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="7"/>
@@ -1563,8 +1548,7 @@
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="7"/>
@@ -1575,8 +1559,7 @@
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="7"/>
@@ -1587,8 +1570,7 @@
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="7"/>
@@ -1599,8 +1581,7 @@
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="7"/>
@@ -1611,8 +1592,7 @@
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="7"/>
@@ -1623,8 +1603,7 @@
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="7"/>
@@ -1635,8 +1614,7 @@
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="7"/>
@@ -1647,8 +1625,7 @@
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="7"/>
@@ -1659,8 +1636,7 @@
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="7"/>
@@ -1671,8 +1647,7 @@
       <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="7"/>
@@ -1683,8 +1658,7 @@
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="7"/>
@@ -1695,8 +1669,7 @@
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="7"/>
@@ -1707,8 +1680,7 @@
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D32" s="7"/>
@@ -1719,8 +1691,7 @@
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="7"/>
@@ -1731,8 +1702,7 @@
       <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="7"/>
@@ -1743,8 +1713,7 @@
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="7"/>
@@ -1755,8 +1724,7 @@
       <c r="A36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="7"/>
@@ -1767,8 +1735,7 @@
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="7"/>
@@ -1779,8 +1746,7 @@
       <c r="A38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="7"/>
@@ -1791,8 +1757,7 @@
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="7"/>
@@ -1803,8 +1768,7 @@
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="7"/>
@@ -1815,8 +1779,7 @@
       <c r="A41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="7"/>
@@ -1877,86 +1840,10 @@
       <c r="G49" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A45:G49"/>
   </mergeCells>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>软件工程系列课程教学辅助网站教师优先级打分表（作者：G18）</t>
   </si>
@@ -88,7 +88,7 @@
     <t>教师有权在已开设的课程列表中关闭课程</t>
   </si>
   <si>
-    <t>*删除回复</t>
+    <t>删除回复</t>
   </si>
   <si>
     <t>可以删除自己发表的回复</t>
@@ -106,13 +106,13 @@
     <t>教师在忘记密码的情况下可以通过管理员重置方式或者发送邮箱验证码的方式进行面找回</t>
   </si>
   <si>
-    <t>*在线预览、下载答疑记录</t>
+    <t>在线预览、下载答疑记录</t>
   </si>
   <si>
     <t>教师可以在线预览往期的答疑记录并且能够下载</t>
   </si>
   <si>
-    <t>*搜索消息</t>
+    <t>搜索消息</t>
   </si>
   <si>
     <t>教师有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，教师可以根据消息分类筛选和关键字搜索相关信息</t>
@@ -184,7 +184,7 @@
     <t>教师可以在自己开设的课程资料中上传课程资料</t>
   </si>
   <si>
-    <t>*课程论坛删除别人的帖子</t>
+    <t>课程论坛删除别人的帖子</t>
   </si>
   <si>
     <t>教师有权可以在课程论坛中管理删除帖子，相当于一个小吧主</t>
@@ -214,13 +214,13 @@
     <t>教师可以删除往期的答疑记录</t>
   </si>
   <si>
-    <t>*置顶、加精帖子</t>
+    <t>置顶、加精帖子</t>
   </si>
   <si>
     <t>教师有权在自己的课程论坛下置顶加精帖子</t>
   </si>
   <si>
-    <t>*举报帖子、用户</t>
+    <t>举报帖子、用户</t>
   </si>
   <si>
     <t>教师可以在帖子对不良帖子和用户进行举报</t>
@@ -244,7 +244,7 @@
     <t>教师可以下载、在线预览课程资料</t>
   </si>
   <si>
-    <t>*关注、取关课程和教师</t>
+    <t>关注、取关课程和教师</t>
   </si>
   <si>
     <t>教师可以关注全网自己感兴趣的课程、教师，可以在“我的关注”中取关</t>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>教师可以进行在线答疑，在发送内容的时候可以上传附件和图片</t>
+  </si>
+  <si>
+    <t>取消置顶、取消加精帖子</t>
+  </si>
+  <si>
+    <t>教师有权在自己的课程论坛下取消置顶，取消加精帖子</t>
+  </si>
+  <si>
+    <t>中途保存答疑记录</t>
+  </si>
+  <si>
+    <t>教师在在线答疑的时候可以中途保存答疑记录</t>
   </si>
   <si>
     <t>合计</t>
@@ -296,9 +308,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,14 +349,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,14 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +471,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,83 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -489,181 +501,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,11 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,17 +725,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,39 +760,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -780,6 +768,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,149 +800,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +965,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1280,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B41"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1786,66 +1801,80 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
+    <row r="42" ht="14.25" spans="1:2">
+      <c r="A42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="8"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:G49"/>
+    <mergeCell ref="A60:G64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -127,7 +127,7 @@
     <t>教师注册</t>
   </si>
   <si>
-    <t>通过教工号，学校的邮箱，姓名和密码进行注册，发送注册信息至管理员由管理员审核</t>
+    <t>通过工作单位，学校的邮箱，姓名，电话号码，身份证以及上传身份证正反照片和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
     <t>删除课程资料</t>
@@ -307,10 +307,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -364,9 +364,108 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,105 +491,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -501,31 +501,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,151 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,41 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +736,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -769,16 +754,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -787,8 +787,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,9 +965,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1297,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1818,12 +1815,12 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B60" s="1"/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -73,7 +73,7 @@
     <t>删除课程公告</t>
   </si>
   <si>
-    <t>在自己往期发布中的公告中删除往期公告</t>
+    <t>在自己的课程公告中删除公告</t>
   </si>
   <si>
     <t>修改教师介绍</t>
@@ -103,7 +103,7 @@
     <t>找回密码</t>
   </si>
   <si>
-    <t>教师在忘记密码的情况下可以通过管理员重置方式或者发送邮箱验证码的方式进行面找回</t>
+    <t>教师在忘记密码的情况下可以通过管理员重置方式进行密码找回</t>
   </si>
   <si>
     <t>在线预览、下载答疑记录</t>
@@ -133,7 +133,7 @@
     <t>删除课程资料</t>
   </si>
   <si>
-    <t>教师可以在删除课程资料</t>
+    <t>教师可以删除课程资料</t>
   </si>
   <si>
     <t>收藏、取消收藏帖子</t>
@@ -181,13 +181,13 @@
     <t>上传课程资料</t>
   </si>
   <si>
-    <t>教师可以在自己开设的课程资料中上传课程资料</t>
+    <t>教师可以上传课程资料</t>
   </si>
   <si>
     <t>课程论坛删除别人的帖子</t>
   </si>
   <si>
-    <t>教师有权可以在课程论坛中管理删除帖子，相当于一个小吧主</t>
+    <t>教师可以在课程论坛中删除别人的帖子</t>
   </si>
   <si>
     <t>课程搜索</t>
@@ -205,13 +205,13 @@
     <t>关闭答疑</t>
   </si>
   <si>
-    <t>在课程答疑中关闭结束答疑并且有1分钟的缓冲时间</t>
+    <t>在课程答疑中关闭结束答疑并且有几分钟的缓冲时间</t>
   </si>
   <si>
     <t>删除答疑记录</t>
   </si>
   <si>
-    <t>教师可以删除往期的答疑记录</t>
+    <t>教师可以删除历史答疑记录答疑记录</t>
   </si>
   <si>
     <t>置顶、加精帖子</t>
@@ -229,7 +229,7 @@
     <t>下载附件</t>
   </si>
   <si>
-    <t>教师可以在帖子中的附件或答疑信息中的附件进行下载</t>
+    <t>教师可以对帖子中的附件或答疑信息中的附件进行下载</t>
   </si>
   <si>
     <t>开启答疑</t>
@@ -283,7 +283,7 @@
     <t>取消置顶、取消加精帖子</t>
   </si>
   <si>
-    <t>教师有权在自己的课程论坛下取消置顶，取消加精帖子</t>
+    <t>教师有权在自己的课程论坛中取消置顶，取消加精帖子</t>
   </si>
   <si>
     <t>中途保存答疑记录</t>
@@ -349,14 +349,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,112 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -501,12 +501,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,169 +633,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +734,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -754,36 +769,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -792,6 +777,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,8 +1294,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>软件工程系列课程教学辅助网站教师优先级打分表（作者：G18）</t>
   </si>
@@ -88,7 +88,7 @@
     <t>教师有权在已开设的课程列表中关闭课程</t>
   </si>
   <si>
-    <t>删除回复</t>
+    <t>在总论坛或者课程论坛里删除回复</t>
   </si>
   <si>
     <t>可以删除自己发表的回复</t>
@@ -142,7 +142,7 @@
     <t>教师可以在论坛中对好的帖子进行收藏，如果要取消收藏可以去“我的收藏中”点击取消收藏按钮</t>
   </si>
   <si>
-    <t>课程公告修改</t>
+    <t>修改课程公告</t>
   </si>
   <si>
     <t>教师发现课程公告内容出错了可以修改课程公告并重新发送</t>
@@ -154,13 +154,13 @@
     <t>教师有权开设课程，填写内容并且由管理员审核</t>
   </si>
   <si>
-    <t>修改个人信息，头像和密码</t>
-  </si>
-  <si>
-    <t>教师可以修改个人信息（微信，个人简介等信息），教师也可以修改头像和修改自己的密码</t>
-  </si>
-  <si>
-    <t>删除自己发的帖子</t>
+    <t>编辑个人信息，修改头像和密码</t>
+  </si>
+  <si>
+    <t>教师可以编辑个人信息（微信，个人简介等信息），教师也可以修改头像和修改自己的密码</t>
+  </si>
+  <si>
+    <t>在总论坛或者课程论坛上删除自己发表的帖子</t>
   </si>
   <si>
     <t>可以在总论坛和课程论坛删除帖子，也可以在“我的帖子”列表中进行删除</t>
@@ -172,10 +172,10 @@
     <t>教师可以对“我的消息”中的消息进行删除</t>
   </si>
   <si>
-    <t>教师的登录、注销</t>
-  </si>
-  <si>
-    <t>实现登录和退出登录</t>
+    <t>教师的登录</t>
+  </si>
+  <si>
+    <t>教师实现账号的登录</t>
   </si>
   <si>
     <t>上传课程资料</t>
@@ -232,7 +232,7 @@
     <t>教师可以对帖子中的附件或答疑信息中的附件进行下载</t>
   </si>
   <si>
-    <t>开启答疑</t>
+    <t>设置答疑</t>
   </si>
   <si>
     <t>教师可以课程答疑中设置好开始时间和时长后开启答疑</t>
@@ -244,7 +244,7 @@
     <t>教师可以下载、在线预览课程资料</t>
   </si>
   <si>
-    <t>关注、取关课程和教师</t>
+    <t>关注、取关课程和用户</t>
   </si>
   <si>
     <t>教师可以关注全网自己感兴趣的课程、教师，可以在“我的关注”中取关</t>
@@ -256,13 +256,13 @@
     <t>教师在课程答疑快要结束了，可以延时答疑</t>
   </si>
   <si>
-    <t>发表帖子</t>
+    <t>在总论坛或者课程论坛发表帖子</t>
   </si>
   <si>
     <t>可以在总论坛和课程论坛发表帖子（包括可以上传附件和图片）</t>
   </si>
   <si>
-    <t>回复帖子</t>
+    <t>在总论坛或者课程论坛回复帖子，以及可以针对某一楼层用户进行回复</t>
   </si>
   <si>
     <t>可以在总论坛和课程论坛回复帖子（包括可以上传附件和图片）</t>
@@ -274,7 +274,7 @@
     <t>教师因特殊原因可以在答疑开始前30分钟修改答疑时间</t>
   </si>
   <si>
-    <t>在线答疑</t>
+    <t>在线答疑聊天</t>
   </si>
   <si>
     <t>教师可以进行在线答疑，在发送内容的时候可以上传附件和图片</t>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>教师在在线答疑的时候可以中途保存答疑记录</t>
+  </si>
+  <si>
+    <t>教师对帖子进行排序</t>
+  </si>
+  <si>
+    <t>教师可以对帖子进行排序，按照时间，回复量，收藏量进行排序</t>
+  </si>
+  <si>
+    <t>搜索课程资料</t>
+  </si>
+  <si>
+    <t>教师可以按照课程资料关键词进行搜索</t>
+  </si>
+  <si>
+    <t>在总论坛或者课程论坛上搜索帖子</t>
+  </si>
+  <si>
+    <t>教师可以按照关键词进行搜索</t>
   </si>
   <si>
     <t>合计</t>
@@ -349,7 +367,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,27 +397,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +418,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -408,6 +434,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -431,46 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,55 +519,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,127 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +713,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +753,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -745,15 +778,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,17 +802,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,149 +818,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,7 +983,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,13 +1324,13 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="47.625" customWidth="1"/>
     <col min="2" max="2" width="117.625" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
@@ -1395,433 +1425,458 @@
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="14.25" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="14.25" spans="1:6">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="14.25" spans="1:6">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" ht="14.25" spans="1:6">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" ht="14.25" spans="1:6">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" ht="14.25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" ht="14.25" spans="1:6">
       <c r="A27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
       <c r="A28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" ht="14.25" spans="1:6">
       <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" ht="14.25" spans="1:6">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" ht="14.25" spans="1:6">
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" ht="14.25" spans="1:6">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" ht="14.25" spans="1:6">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" ht="14.25" spans="1:6">
       <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" ht="14.25" spans="1:6">
       <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" ht="14.25" spans="1:6">
       <c r="A36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" ht="14.25" spans="1:6">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" ht="14.25" spans="1:6">
       <c r="A38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:6">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="28.5" spans="1:6">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" ht="14.25" spans="1:6">
       <c r="A40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" ht="14.25" spans="1:6">
       <c r="A41" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
+      <c r="B44" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="12"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9" t="s">
-        <v>93</v>
+      <c r="A60" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -366,24 +366,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,30 +415,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,16 +480,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,54 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +710,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,15 +757,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,17 +776,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,24 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -818,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,16 +830,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,119 +848,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,12 +986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1324,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1848,34 +1842,34 @@
       <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="1"/>

--- a/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/教师优先级打分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRD2018\非受控文档\过程文档\优先级打分表（改）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F798BA9-E903-4C5C-AA79-BE741428A0C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFFD752-AB65-4F6B-88D4-2E3841D5AD1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,16 +408,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -717,52 +717,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="G4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>92</v>
       </c>
       <c r="I4" s="3" t="s">
